--- a/exe/Backup/2022_FinancialRecords.xlsx
+++ b/exe/Backup/2022_FinancialRecords.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="42">
   <si>
     <t>Income &amp; Expenses</t>
   </si>
@@ -124,22 +124,31 @@
     <t>Account for Transaction</t>
   </si>
   <si>
-    <t>TRK</t>
+    <t>TT1</t>
   </si>
   <si>
     <t>Liquid</t>
   </si>
   <si>
-    <t>PLQ</t>
+    <t>MMR</t>
+  </si>
+  <si>
+    <t>LAP</t>
   </si>
   <si>
     <t>Fixed</t>
   </si>
   <si>
-    <t>VWN</t>
-  </si>
-  <si>
-    <t>PRT</t>
+    <t>TER</t>
+  </si>
+  <si>
+    <t>NAHE</t>
+  </si>
+  <si>
+    <t>MUL</t>
+  </si>
+  <si>
+    <t>Fixed Asset</t>
   </si>
 </sst>
 </file>
@@ -163,7 +172,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -230,19 +239,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -309,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -317,7 +313,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -327,15 +322,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="6" xfId="0" applyBorder="1"/>
-    <xf borderId="6" xfId="0" applyBorder="1"/>
-    <xf borderId="6" applyBorder="1"/>
+    <xf borderId="5" xfId="0" applyBorder="1"/>
+    <xf borderId="5" xfId="0" applyBorder="1"/>
+    <xf borderId="5" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -613,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="A15" sqref="A15:N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -625,22 +620,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="10"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="9"/>
     </row>
     <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -731,43 +726,43 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <f>SUM(Expenses!B:B)</f>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <f>SUM(Expenses!C:C)</f>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <f>SUM(Expenses!D:D)</f>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <f>SUM(Expenses!E:E)</f>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <f>SUM(Expenses!F:F)</f>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <f>SUM(Expenses!G:G)</f>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <f>SUM(Expenses!H:H)</f>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <f>SUM(Expenses!I:I)</f>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <f>SUM(Expenses!J:J)</f>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <f>SUM(Expenses!K:K)</f>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="4">
         <f>SUM(Expenses!L:L)</f>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="4">
         <f>SUM(Expenses!M:M)</f>
       </c>
       <c r="N4" s="4">
@@ -775,77 +770,77 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.4">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
     </row>
     <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.4">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="10"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="9"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <f>B3+B4</f>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <f>C3+C4</f>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <f>D3+D4</f>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <f>E3+E4</f>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <f>F3+F4</f>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <f>G3+G4</f>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <f>H3+H4</f>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <f>I3+I4</f>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <f>J3+J4</f>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="6">
         <f>K3+K4</f>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="6">
         <f>L3+L4</f>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="6">
         <f>M3+M4</f>
       </c>
       <c r="N7" s="4">
@@ -853,39 +848,39 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.4"/>
     <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.4">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="10"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="9"/>
     </row>
     <row r="11" spans="1:14" ht="15" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
@@ -932,7 +927,9 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="4"/>
+      <c r="A12" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -948,7 +945,9 @@
       <c r="N12" s="4"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="4"/>
+      <c r="A13" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -963,94 +962,170 @@
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
     </row>
-    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.4">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-    </row>
-    <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.4">
-      <c r="A15" s="8" t="s">
+    <row r="14" spans="1:14">
+      <c r="A14" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+    </row>
+    <row r="16" spans="1:14" ht="15" x14ac:dyDescent="0.4">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+    </row>
+    <row r="17" spans="1:14" ht="15" x14ac:dyDescent="0.4">
+      <c r="A17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="10"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="9"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18" s="5"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
+      <c r="A18" s="6">
+        <f>A12</f>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
+        <f>A13</f>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" s="4">
+        <f>A14</f>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="14">
+        <f>A15</f>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A6:N6"/>
     <mergeCell ref="A10:N10"/>
-    <mergeCell ref="A15:N15"/>
+    <mergeCell ref="A17:N17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.787402" bottom="0.787402" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1058,7 +1133,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
@@ -1071,25 +1146,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="10"/>
-      <c r="G1" s="11" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="9"/>
+      <c r="G1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="10"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="9"/>
       <c r="L1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1098,8 +1173,8 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.4">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
@@ -1109,7 +1184,7 @@
       <c r="E2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="12"/>
+      <c r="G2" s="11"/>
       <c r="H2" s="1" t="s">
         <v>25</v>
       </c>
@@ -1119,8 +1194,12 @@
       <c r="J2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
+      <c r="L2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="4">
+        <v>1010</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
@@ -1129,83 +1208,110 @@
       <c r="B3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="5">
-        <v>225</v>
-      </c>
-      <c r="D3" s="5">
-        <v>225</v>
+      <c r="C3" s="4">
+        <v>450</v>
+      </c>
+      <c r="D3" s="4">
+        <v>450</v>
       </c>
       <c r="E3" s="4">
         <f>D3-C3</f>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="4"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
+      <c r="G3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="4">
+        <v>450</v>
+      </c>
+      <c r="I3" s="4">
+        <v>450</v>
+      </c>
+      <c r="J3" s="4">
+        <f>I3-H3</f>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="4">
+        <v>245</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="4">
+        <v>560</v>
+      </c>
+      <c r="D4" s="4">
+        <v>560</v>
+      </c>
+      <c r="E4" s="4">
+        <f>D4-C4</f>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="4">
+        <v>310</v>
+      </c>
+      <c r="I4" s="4">
+        <v>310</v>
+      </c>
+      <c r="J4" s="4">
+        <f>I4-H4</f>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="5">
+      <c r="B5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="12">
+        <v>245</v>
+      </c>
+      <c r="D5" s="12">
+        <v>245</v>
+      </c>
+      <c r="E5" s="12">
+        <f>D5-C5</f>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="14">
         <v>250</v>
       </c>
-      <c r="D4" s="5">
+      <c r="I5" s="14">
         <v>250</v>
       </c>
-      <c r="E4" s="5">
-        <f>D4-C4</f>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="13">
+      <c r="J5" s="14">
+        <f>I5-H5</f>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="G6" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="14">
         <v>245</v>
       </c>
-      <c r="D5" s="13">
+      <c r="I6" s="14">
         <v>245</v>
       </c>
-      <c r="E5" s="13">
-        <f>D5-C5</f>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="14">
-        <v>456</v>
-      </c>
-      <c r="D6" s="14">
-        <v>456</v>
-      </c>
-      <c r="E6" s="14">
-        <f>D6-C6</f>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
+      <c r="J6" s="14">
+        <f>I6-H6</f>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1290,36 +1396,36 @@
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.787402" bottom="0.787402" header="0.3" footer="0.3"/>
@@ -1397,36 +1503,36 @@
       <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.787402" bottom="0.787402" header="0.3" footer="0.3"/>
@@ -1475,12 +1581,12 @@
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.787402" bottom="0.787402" header="0.3" footer="0.3"/>

--- a/exe/Backup/2022_FinancialRecords.xlsx
+++ b/exe/Backup/2022_FinancialRecords.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="44">
   <si>
     <t>Income &amp; Expenses</t>
   </si>
@@ -149,6 +149,12 @@
   </si>
   <si>
     <t>Fixed Asset</t>
+  </si>
+  <si>
+    <t>PERT</t>
+  </si>
+  <si>
+    <t>VLOR</t>
   </si>
 </sst>
 </file>
@@ -330,7 +336,7 @@
     </xf>
     <xf borderId="5" xfId="0" applyBorder="1"/>
     <xf borderId="5" xfId="0" applyBorder="1"/>
-    <xf borderId="5" applyBorder="1"/>
+    <xf borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -608,7 +614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A15" sqref="A15:N15"/>
@@ -928,7 +934,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -946,7 +952,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -964,7 +970,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -980,79 +986,79 @@
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
     </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
+    <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.4">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
     </row>
     <row r="16" spans="1:14" ht="15" x14ac:dyDescent="0.4">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-    </row>
-    <row r="17" spans="1:14" ht="15" x14ac:dyDescent="0.4">
-      <c r="A17" s="7" t="s">
+      <c r="A16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="9"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" s="6">
+        <f>A12</f>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18" s="6">
-        <f>A12</f>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
+      <c r="A18" s="4">
+        <f>A13</f>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
-        <f>A13</f>
+        <f>A14</f>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1068,64 +1074,12 @@
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A20" s="4">
-        <f>A14</f>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="14">
-        <f>A15</f>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A6:N6"/>
     <mergeCell ref="A10:N10"/>
-    <mergeCell ref="A17:N17"/>
+    <mergeCell ref="A16:N16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.787402" bottom="0.787402" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1218,13 +1172,13 @@
         <f>D3-C3</f>
       </c>
       <c r="G3" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H3" s="4">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="I3" s="4">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="J3" s="4">
         <f>I3-H3</f>
@@ -1253,13 +1207,13 @@
         <f>D4-C4</f>
       </c>
       <c r="G4" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H4" s="4">
-        <v>310</v>
+        <v>555</v>
       </c>
       <c r="I4" s="4">
-        <v>310</v>
+        <v>555</v>
       </c>
       <c r="J4" s="4">
         <f>I4-H4</f>
@@ -1282,13 +1236,13 @@
         <f>D5-C5</f>
       </c>
       <c r="G5" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H5" s="14">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="I5" s="14">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="J5" s="14">
         <f>I5-H5</f>
@@ -1300,18 +1254,6 @@
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
-      <c r="G6" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="14">
-        <v>245</v>
-      </c>
-      <c r="I6" s="14">
-        <v>245</v>
-      </c>
-      <c r="J6" s="14">
-        <f>I6-H6</f>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/exe/Backup/2022_FinancialRecords.xlsx
+++ b/exe/Backup/2022_FinancialRecords.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="56">
   <si>
     <t>Income &amp; Expenses</t>
   </si>
@@ -182,6 +182,15 @@
   </si>
   <si>
     <t>PPAL</t>
+  </si>
+  <si>
+    <t>LLA</t>
+  </si>
+  <si>
+    <t>HH</t>
+  </si>
+  <si>
+    <t>ZUT</t>
   </si>
 </sst>
 </file>
@@ -357,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -383,6 +392,11 @@
     </xf>
     <xf borderId="6" xfId="0" applyBorder="1"/>
     <xf borderId="6" xfId="0" applyBorder="1"/>
+    <xf borderId="11" xfId="0" applyBorder="1"/>
+    <xf borderId="11" xfId="0" applyBorder="1"/>
+    <xf borderId="11" xfId="0" applyBorder="1"/>
+    <xf borderId="4" xfId="0" applyBorder="1"/>
+    <xf borderId="5" xfId="0" applyBorder="1"/>
     <xf borderId="11" xfId="0" applyBorder="1"/>
     <xf borderId="11" xfId="0" applyBorder="1"/>
     <xf borderId="11" applyBorder="1"/>
@@ -663,7 +677,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A15" sqref="A15:N15"/>
@@ -982,7 +996,9 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="4"/>
+      <c r="A12" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -997,110 +1013,244 @@
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-    </row>
-    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.4">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-    </row>
-    <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.4">
-      <c r="A15" s="8" t="s">
+    <row r="13" spans="1:14">
+      <c r="A13" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+    </row>
+    <row r="18" spans="1:14" ht="15" x14ac:dyDescent="0.4">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="1:14" ht="15" x14ac:dyDescent="0.4">
+      <c r="A19" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="10"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18" s="5"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="10"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A6:N6"/>
     <mergeCell ref="A10:N10"/>
-    <mergeCell ref="A15:N15"/>
+    <mergeCell ref="A19:N19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.787402" bottom="0.787402" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1108,7 +1258,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
@@ -1193,13 +1343,13 @@
         <f>D3-C3</f>
       </c>
       <c r="G3" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H3" s="5">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="I3" s="5">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="J3" s="4">
         <f>I3-H3</f>
@@ -1227,16 +1377,16 @@
       <c r="E4" s="5">
         <f>D4-C4</f>
       </c>
-      <c r="G4" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="17">
-        <v>250</v>
-      </c>
-      <c r="I4" s="17">
-        <v>250</v>
-      </c>
-      <c r="J4" s="17">
+      <c r="G4" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="21">
+        <v>350</v>
+      </c>
+      <c r="I4" s="21">
+        <v>350</v>
+      </c>
+      <c r="J4" s="21">
         <f>I4-H4</f>
       </c>
     </row>
@@ -1256,16 +1406,16 @@
       <c r="E5" s="13">
         <f>D5-C5</f>
       </c>
-      <c r="G5" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="17">
-        <v>315</v>
-      </c>
-      <c r="I5" s="17">
-        <v>315</v>
-      </c>
-      <c r="J5" s="17">
+      <c r="G5" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="21">
+        <v>120</v>
+      </c>
+      <c r="I5" s="21">
+        <v>120</v>
+      </c>
+      <c r="J5" s="21">
         <f>I5-H5</f>
       </c>
     </row>
@@ -1285,20 +1435,47 @@
       <c r="E6" s="14">
         <f>D6-C6</f>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="21">
+        <v>40</v>
+      </c>
+      <c r="I6" s="21">
+        <v>40</v>
+      </c>
+      <c r="J6" s="21">
+        <f>I6-H6</f>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="G7" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="21">
+        <v>85</v>
+      </c>
+      <c r="I7" s="21">
+        <v>85</v>
+      </c>
+      <c r="J7" s="21">
+        <f>I7-H7</f>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="G8" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H8" s="21">
         <v>234</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I8" s="21">
         <v>234</v>
       </c>
-      <c r="J6" s="17">
-        <f>I6-H6</f>
-      </c>
-    </row>
-    <row r="7" spans="1:13"/>
+      <c r="J8" s="21">
+        <f>I8-H8</f>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
@@ -1527,7 +1704,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
@@ -1538,7 +1715,7 @@
     <col min="6" max="6" width="20.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -1557,16 +1734,32 @@
       <c r="F1" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>

--- a/exe/Backup/2022_FinancialRecords.xlsx
+++ b/exe/Backup/2022_FinancialRecords.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="58">
   <si>
     <t>Income &amp; Expenses</t>
   </si>
@@ -191,6 +191,12 @@
   </si>
   <si>
     <t>ZUT</t>
+  </si>
+  <si>
+    <t>APER</t>
+  </si>
+  <si>
+    <t>MENDA</t>
   </si>
 </sst>
 </file>
@@ -366,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -397,6 +403,7 @@
     <xf borderId="11" xfId="0" applyBorder="1"/>
     <xf borderId="4" xfId="0" applyBorder="1"/>
     <xf borderId="5" xfId="0" applyBorder="1"/>
+    <xf borderId="11" xfId="0" applyBorder="1"/>
     <xf borderId="11" xfId="0" applyBorder="1"/>
     <xf borderId="11" xfId="0" applyBorder="1"/>
     <xf borderId="11" applyBorder="1"/>
@@ -1343,13 +1350,13 @@
         <f>D3-C3</f>
       </c>
       <c r="G3" s="4" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="H3" s="5">
-        <v>220</v>
+        <v>550</v>
       </c>
       <c r="I3" s="5">
-        <v>220</v>
+        <v>550</v>
       </c>
       <c r="J3" s="4">
         <f>I3-H3</f>
@@ -1377,16 +1384,16 @@
       <c r="E4" s="5">
         <f>D4-C4</f>
       </c>
-      <c r="G4" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="21">
-        <v>350</v>
-      </c>
-      <c r="I4" s="21">
-        <v>350</v>
-      </c>
-      <c r="J4" s="21">
+      <c r="G4" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="23">
+        <v>265</v>
+      </c>
+      <c r="I4" s="23">
+        <v>265</v>
+      </c>
+      <c r="J4" s="23">
         <f>I4-H4</f>
       </c>
     </row>
@@ -1406,16 +1413,16 @@
       <c r="E5" s="13">
         <f>D5-C5</f>
       </c>
-      <c r="G5" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="21">
-        <v>120</v>
-      </c>
-      <c r="I5" s="21">
-        <v>120</v>
-      </c>
-      <c r="J5" s="21">
+      <c r="G5" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="23">
+        <v>234</v>
+      </c>
+      <c r="I5" s="23">
+        <v>234</v>
+      </c>
+      <c r="J5" s="23">
         <f>I5-H5</f>
       </c>
     </row>
@@ -1435,47 +1442,9 @@
       <c r="E6" s="14">
         <f>D6-C6</f>
       </c>
-      <c r="G6" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="21">
-        <v>40</v>
-      </c>
-      <c r="I6" s="21">
-        <v>40</v>
-      </c>
-      <c r="J6" s="21">
-        <f>I6-H6</f>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="G7" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="21">
-        <v>85</v>
-      </c>
-      <c r="I7" s="21">
-        <v>85</v>
-      </c>
-      <c r="J7" s="21">
-        <f>I7-H7</f>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="G8" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="21">
-        <v>234</v>
-      </c>
-      <c r="I8" s="21">
-        <v>234</v>
-      </c>
-      <c r="J8" s="21">
-        <f>I8-H8</f>
-      </c>
-    </row>
+    </row>
+    <row r="7" spans="1:13"/>
+    <row r="8" spans="1:13"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>

--- a/exe/Backup/2022_FinancialRecords.xlsx
+++ b/exe/Backup/2022_FinancialRecords.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>Category</t>
   </si>
@@ -177,12 +177,29 @@
   </si>
   <si>
     <t>Nakata</t>
+  </si>
+  <si>
+    <t>Nagatomo</t>
+  </si>
+  <si>
+    <t>Ventradate</t>
+  </si>
+  <si>
+    <t>Geverine</t>
+  </si>
+  <si>
+    <t>Starting Point</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="0">
     <font>
       <sz val="11"/>
@@ -363,12 +380,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -394,7 +410,12 @@
     <xf borderId="12" xfId="0" applyBorder="1"/>
     <xf borderId="12" xfId="0" applyBorder="1"/>
     <xf borderId="12" xfId="0" applyBorder="1"/>
-    <xf borderId="12" applyBorder="1"/>
+    <xf borderId="12" xfId="0" applyBorder="1"/>
+    <xf borderId="12" xfId="0" applyBorder="1"/>
+    <xf borderId="4" xfId="0" applyBorder="1"/>
+    <xf borderId="5" xfId="0" applyBorder="1"/>
+    <xf borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -684,22 +705,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="12"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -746,222 +767,222 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="12"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="11"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
       <c r="N4" s="4">
         <f>SUM(B4:M4)</f>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
     </row>
     <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="12"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="11"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
       <c r="N11" s="4">
         <f>SUM(B11:M11)</f>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
     </row>
     <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.35">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
     </row>
     <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="12"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="11"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
@@ -1008,43 +1029,43 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <f>SUM(B10:B14)</f>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <f>SUM(C10:C14)</f>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <f>SUM(D10:D14)</f>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <f>SUM(E10:E14)</f>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <f>SUM(F10:F14)</f>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <f>SUM(G10:G14)</f>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="4">
         <f>SUM(H10:H14)</f>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="4">
         <f>SUM(I10:I14)</f>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="4">
         <f>SUM(J10:J14)</f>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="4">
         <f>SUM(K10:K14)</f>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="4">
         <f>SUM(L10:L14)</f>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="4">
         <f>SUM(M10:M14)</f>
       </c>
       <c r="N17" s="4">
@@ -1052,112 +1073,112 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <f>B16+B17</f>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <f>C16+C17</f>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <f>D16+D17</f>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <f>E16+E17</f>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <f>F16+F17</f>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <f>G16+G17</f>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="5">
         <f>H16+H17</f>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="5">
         <f>I16+I17</f>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="5">
         <f>J16+J17</f>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="5">
         <f>K16+K17</f>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="5">
         <f>L16+L17</f>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="5">
         <f>M16+M17</f>
       </c>
-      <c r="N18" s="9">
+      <c r="N18" s="8">
         <f>SUM(B18:M18)</f>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1185,28 +1206,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="12"/>
-      <c r="G1" s="13" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
+      <c r="G1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="12"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="11"/>
       <c r="M1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1215,8 +1236,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.35">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
       <c r="C2" s="1" t="s">
         <v>22</v>
       </c>
@@ -1226,8 +1247,8 @@
       <c r="E2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
       <c r="I2" s="1" t="s">
         <v>22</v>
       </c>
@@ -1251,102 +1272,119 @@
       <c r="B3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>500</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>500</v>
       </c>
       <c r="E3" s="4">
         <f>D3-C3</f>
       </c>
       <c r="G3" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H3" s="4">
-        <v>57.5</v>
-      </c>
-      <c r="I3" s="5">
-        <v>718.75</v>
-      </c>
-      <c r="J3" s="5">
+        <v>35.7</v>
+      </c>
+      <c r="I3" s="4">
+        <v>446.25</v>
+      </c>
+      <c r="J3" s="4">
         <f>H3/100 * N2</f>
+        <v>446.25</v>
       </c>
       <c r="K3" s="4">
         <f>J3-I3</f>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="4">
         <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>750</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>750</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <f>D4-C4</f>
       </c>
       <c r="G4" s="20" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H4" s="20">
-        <v>42.5</v>
+        <v>25.3</v>
       </c>
       <c r="I4" s="20">
-        <v>531.25</v>
+        <v>316.25</v>
       </c>
       <c r="J4" s="20">
-        <f>H4/100 * N2</f>
+        <v>316.25</v>
       </c>
       <c r="K4" s="20">
         <f>J4-I4</f>
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>400</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>400</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <f>D5-C5</f>
       </c>
       <c r="G5" s="20" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H5" s="20">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="I5" s="20">
-        <v>400</v>
+        <v>487.5</v>
       </c>
       <c r="J5" s="20">
-        <f>N3</f>
+        <v>487.5</v>
       </c>
       <c r="K5" s="20">
         <f>J5-I5</f>
       </c>
     </row>
-    <row r="6" spans="1:14"/>
+    <row r="6" spans="1:14">
+      <c r="G6" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="20">
+        <v>100</v>
+      </c>
+      <c r="I6" s="20">
+        <v>400</v>
+      </c>
+      <c r="J6" s="20">
+        <v>400</v>
+      </c>
+      <c r="K6" s="20">
+        <f>J6-I6</f>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:A2"/>
@@ -1362,7 +1400,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
@@ -1373,7 +1411,7 @@
     <col min="6" max="6" width="20.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1392,22 +1430,47 @@
       <c r="F1" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
+      <c r="G1" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="24">
+        <v>44673</v>
+      </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="G2" s="22">
+        <v>500</v>
+      </c>
+      <c r="H2" s="22">
+        <v>750</v>
+      </c>
+      <c r="I2" s="22">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.787402" bottom="0.787402" header="0.3" footer="0.3"/>

--- a/exe/Backup/2022_FinancialRecords.xlsx
+++ b/exe/Backup/2022_FinancialRecords.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
     <sheet name="Income Statement" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>Category</t>
   </si>
@@ -128,78 +128,37 @@
     <t>Allocation</t>
   </si>
   <si>
-    <t>Verna</t>
+    <t>Ralekin</t>
   </si>
   <si>
     <t>Liquid</t>
   </si>
   <si>
-    <t>Begarnade</t>
-  </si>
-  <si>
-    <t>Cernique</t>
+    <t>Metona</t>
+  </si>
+  <si>
+    <t>Generat</t>
   </si>
   <si>
     <t>Fixed</t>
   </si>
   <si>
-    <t>Nakano</t>
-  </si>
-  <si>
-    <t>Vernage</t>
-  </si>
-  <si>
-    <t>Polerc</t>
+    <t>Meyco</t>
+  </si>
+  <si>
+    <t>Veranda</t>
+  </si>
+  <si>
+    <t>Valkyrie</t>
   </si>
   <si>
     <t>Fixed Asset</t>
-  </si>
-  <si>
-    <t>Vergade</t>
-  </si>
-  <si>
-    <t>Lookweed</t>
-  </si>
-  <si>
-    <t>Nagada</t>
-  </si>
-  <si>
-    <t>Hirnegard</t>
-  </si>
-  <si>
-    <t>=N3</t>
-  </si>
-  <si>
-    <t>Vernagade</t>
-  </si>
-  <si>
-    <t>Contre</t>
-  </si>
-  <si>
-    <t>Nakata</t>
-  </si>
-  <si>
-    <t>Nagatomo</t>
-  </si>
-  <si>
-    <t>Ventradate</t>
-  </si>
-  <si>
-    <t>Geverine</t>
-  </si>
-  <si>
-    <t>Starting Point</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="0">
     <font>
       <sz val="11"/>
@@ -217,7 +176,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -278,62 +237,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -359,37 +262,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -399,23 +282,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="6" xfId="0" applyBorder="1"/>
-    <xf borderId="12" xfId="0" applyBorder="1"/>
-    <xf borderId="12" xfId="0" applyBorder="1"/>
-    <xf borderId="12" xfId="0" applyBorder="1"/>
-    <xf borderId="12" xfId="0" applyBorder="1"/>
-    <xf borderId="12" xfId="0" applyBorder="1"/>
-    <xf borderId="12" xfId="0" applyBorder="1"/>
-    <xf borderId="4" xfId="0" applyBorder="1"/>
-    <xf borderId="5" xfId="0" applyBorder="1"/>
-    <xf borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -696,33 +568,33 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:N10"/>
+      <selection activeCell="A15" sqref="A15:N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="11"/>
-    </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.35">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="8"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -766,313 +638,313 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.4">
+      <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="11"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5">
         <f>SUM(B4:M4)</f>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-    </row>
-    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.35">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-    </row>
-    <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.4">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.4">
+      <c r="A10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="11"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="4">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="8"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5">
         <f>SUM(B11:M11)</f>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-    </row>
-    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.35">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-    </row>
-    <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+    </row>
+    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.4">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+    </row>
+    <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.4">
+      <c r="A15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="11"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="8"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="5">
         <f>SUM(B4:B8)</f>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="5">
         <f>SUM(C4:C8)</f>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="5">
         <f>SUM(D4:D8)</f>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="5">
         <f>SUM(E4:E8)</f>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="5">
         <f>SUM(F4:F8)</f>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="5">
         <f>SUM(G4:G8)</f>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="5">
         <f>SUM(H4:H8)</f>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="5">
         <f>SUM(I4:I8)</f>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="5">
         <f>SUM(J4:J8)</f>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="5">
         <f>SUM(K4:K8)</f>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="5">
         <f>SUM(L4:L8)</f>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="5">
         <f>SUM(M4:M8)</f>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="5">
         <f>SUM(B16:M16)</f>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="5">
         <f>SUM(B10:B14)</f>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="5">
         <f>SUM(C10:C14)</f>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="5">
         <f>SUM(D10:D14)</f>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="5">
         <f>SUM(E10:E14)</f>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="5">
         <f>SUM(F10:F14)</f>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="5">
         <f>SUM(G10:G14)</f>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="5">
         <f>SUM(H10:H14)</f>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="5">
         <f>SUM(I10:I14)</f>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="5">
         <f>SUM(J10:J14)</f>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="5">
         <f>SUM(K10:K14)</f>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="5">
         <f>SUM(L10:L14)</f>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="5">
         <f>SUM(M10:M14)</f>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="5">
         <f>SUM(B17:M17)</f>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
@@ -1112,73 +984,73 @@
       <c r="M18" s="5">
         <f>M16+M17</f>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="5">
         <f>SUM(B18:M18)</f>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1195,39 +1067,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.4">
+      <c r="A1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11"/>
-      <c r="G1" s="12" t="s">
+      <c r="D1" s="7"/>
+      <c r="E1" s="8"/>
+      <c r="G1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="11"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="8"/>
       <c r="M1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1235,9 +1107,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.35">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.4">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
       <c r="C2" s="1" t="s">
         <v>22</v>
       </c>
@@ -1247,8 +1119,8 @@
       <c r="E2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
       <c r="I2" s="1" t="s">
         <v>22</v>
       </c>
@@ -1258,130 +1130,135 @@
       <c r="K2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="4">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="N2" s="5">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="4">
-        <v>500</v>
-      </c>
-      <c r="D3" s="4">
-        <v>500</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="C3" s="5">
+        <v>1500</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1500</v>
+      </c>
+      <c r="E3" s="5">
         <f>D3-C3</f>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="4">
-        <v>35.7</v>
-      </c>
-      <c r="I3" s="4">
-        <v>446.25</v>
-      </c>
-      <c r="J3" s="4">
-        <f>H3/100 * N2</f>
-        <v>446.25</v>
-      </c>
-      <c r="K3" s="4">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="5">
+        <v>35.5</v>
+      </c>
+      <c r="I3" s="5">
+        <v>798.75</v>
+      </c>
+      <c r="J3" s="5">
+        <v>798.75</v>
+      </c>
+      <c r="K3" s="5">
         <f>J3-I3</f>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="L3" s="5"/>
+      <c r="M3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="4">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="N3" s="5">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <v>750</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>750</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <f>D4-C4</f>
       </c>
-      <c r="G4" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="20">
-        <v>25.3</v>
-      </c>
-      <c r="I4" s="20">
-        <v>316.25</v>
-      </c>
-      <c r="J4" s="20">
-        <v>316.25</v>
-      </c>
-      <c r="K4" s="20">
+      <c r="F4" s="5"/>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4">
+        <v>22.25</v>
+      </c>
+      <c r="I4">
+        <v>500.625</v>
+      </c>
+      <c r="J4">
+        <v>500.625</v>
+      </c>
+      <c r="K4">
         <f>J4-I4</f>
       </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="14" t="s">
+      <c r="A5" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="14">
-        <v>400</v>
-      </c>
-      <c r="D5" s="14">
-        <v>400</v>
-      </c>
-      <c r="E5" s="14">
+      <c r="C5">
+        <v>4500</v>
+      </c>
+      <c r="D5">
+        <v>4500</v>
+      </c>
+      <c r="E5">
         <f>D5-C5</f>
       </c>
-      <c r="G5" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" s="20">
-        <v>39</v>
-      </c>
-      <c r="I5" s="20">
-        <v>487.5</v>
-      </c>
-      <c r="J5" s="20">
-        <v>487.5</v>
-      </c>
-      <c r="K5" s="20">
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5">
+        <v>42.25</v>
+      </c>
+      <c r="I5">
+        <v>950.625</v>
+      </c>
+      <c r="J5">
+        <v>950.625</v>
+      </c>
+      <c r="K5">
         <f>J5-I5</f>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="G6" s="20" t="s">
+      <c r="G6" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6">
         <v>100</v>
       </c>
-      <c r="I6" s="20">
-        <v>400</v>
-      </c>
-      <c r="J6" s="20">
-        <v>400</v>
-      </c>
-      <c r="K6" s="20">
+      <c r="I6">
+        <v>4500</v>
+      </c>
+      <c r="J6">
+        <v>4500</v>
+      </c>
+      <c r="K6">
         <f>J6-I6</f>
       </c>
     </row>
@@ -1400,18 +1277,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1430,47 +1307,22 @@
       <c r="F1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="24">
-        <v>44673</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="22">
-        <v>500</v>
-      </c>
-      <c r="H2" s="22">
-        <v>750</v>
-      </c>
-      <c r="I2" s="22">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.787402" bottom="0.787402" header="0.3" footer="0.3"/>
